--- a/data/sdy180/resultfiles/neutralizing_antibody_titer_result/Serology_by_Cohort.423737.xlsx
+++ b/data/sdy180/resultfiles/neutralizing_antibody_titer_result/Serology_by_Cohort.423737.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tutg/Documents/DataSciComp/Random_Forest_Rangers/data/sdy180/resultfiles/neutralizing_antibody_titer_result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0388E9-85A5-A541-BE42-7B4E33C6AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="300" windowWidth="20715" windowHeight="11505"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="29260" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cohort 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="203">
   <si>
     <t>Sub Org Accession</t>
   </si>
@@ -610,13 +616,28 @@
   </si>
   <si>
     <t>SUB119261_D0</t>
+  </si>
+  <si>
+    <t>Brisbane triplicate1</t>
+  </si>
+  <si>
+    <t>Brisbane triplicate2</t>
+  </si>
+  <si>
+    <t>Brisbane triplicate3</t>
+  </si>
+  <si>
+    <t>Brisbane mean VN</t>
+  </si>
+  <si>
+    <t>Brisbane VN FC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1094,9 +1115,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1145,13 +1164,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1189,7 +1216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1223,6 +1250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1257,9 +1285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1432,68 +1461,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="46" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="51" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="46" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="51" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="54" max="56" width="20" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1654,22 +1685,22 @@
         <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="BC1" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="BD1" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="BE1" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="BF1" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1782,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -2121,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2234,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -2347,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -2460,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2573,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2686,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2799,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -2912,7 +2943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3025,7 +3056,7 @@
         <v>5.3333333329999997</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -3138,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3251,7 +3282,7 @@
         <v>24.666666670000001</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3364,7 +3395,7 @@
         <v>15.33333333</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>88</v>
       </c>
@@ -3477,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -3590,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3703,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3816,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -3929,7 +3960,7 @@
         <v>1.6666666670000001</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -4042,7 +4073,7 @@
         <v>1.4444444439999999</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -4155,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -4268,7 +4299,7 @@
         <v>31.333333329999999</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -4381,7 +4412,7 @@
         <v>34.666666669999998</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -4494,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -4607,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -4720,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -4812,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -4904,7 +4935,7 @@
         <v>12.69920842</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -4945,7 +4976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -5037,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -5078,7 +5109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -5170,7 +5201,7 @@
         <v>2.5198421</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -5211,7 +5242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -5303,7 +5334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -5395,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5487,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -5579,7 +5610,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -5620,7 +5651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -5712,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -5753,7 +5784,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -5845,7 +5876,7 @@
         <v>2.5198421</v>
       </c>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -5937,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -5978,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -6076,3236 +6107,2648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:58">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>49</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="1">
+      <c r="AL2">
         <v>80</v>
       </c>
-      <c r="AM2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="1">
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>5</v>
       </c>
-      <c r="AO2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="1">
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
         <v>320</v>
       </c>
-      <c r="AQ2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="1">
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
         <v>320</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2">
         <v>320</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2">
         <v>640</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2">
         <v>403.174736</v>
       </c>
-      <c r="AV2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="1">
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
         <v>2560</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2">
         <v>2560</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2">
         <v>2560</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2">
         <v>2560</v>
       </c>
-      <c r="BA2" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="1">
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
         <v>20</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2">
         <v>20</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2">
         <v>40</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2">
         <v>25.198421</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>49</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1">
+      <c r="AL3">
         <v>80</v>
       </c>
-      <c r="AM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1">
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
         <v>5</v>
       </c>
-      <c r="AO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="1">
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>320</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="1">
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
         <v>320</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AS3">
         <v>320</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AT3">
         <v>320</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AU3">
         <v>320</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AV3">
         <v>0.79370052599999996</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AW3">
         <v>5120</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="AX3">
         <v>5120</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="AY3">
         <v>10240</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="AZ3">
         <v>6450.7957749999996</v>
       </c>
-      <c r="BA3" s="1">
+      <c r="BA3">
         <v>2.5198421</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BB3">
         <v>40</v>
       </c>
-      <c r="BC3" s="1">
+      <c r="BC3">
         <v>40</v>
       </c>
-      <c r="BD3" s="1">
+      <c r="BD3">
         <v>80</v>
       </c>
-      <c r="BE3" s="1">
+      <c r="BE3">
         <v>50.396841999999999</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BF3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>22</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>2.5</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.9</v>
       </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>0.5</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.15</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>0.7</v>
       </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0.15</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0.15</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
         <v>0.4</v>
       </c>
-      <c r="AA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="1">
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0.15</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>0.4</v>
       </c>
-      <c r="AE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="1">
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
         <v>0.8</v>
       </c>
-      <c r="AG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="1">
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
         <v>0.4</v>
       </c>
-      <c r="AK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
+      <c r="AK4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>22</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>198.1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>79.239999999999995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>12.6</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>14</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>14.66666667</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5">
         <v>12.3</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5">
         <v>17.571428569999998</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5">
         <v>5.6</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5">
         <v>37.333333330000002</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5">
         <v>2.7</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5">
         <v>18</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5">
         <v>13.33333333</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>23</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>8.1</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>54</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AD5">
         <v>17</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5">
         <v>42.5</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5">
         <v>40.799999999999997</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AG5">
         <v>51</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5">
         <v>14.6</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5">
         <v>14.6</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5">
         <v>5.5</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5">
         <v>13.75</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J6">
+        <v>0.15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.7</v>
       </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0.15</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.15</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0.15</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0.15</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>0.7</v>
       </c>
-      <c r="AC6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0.15</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0.15</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0.15</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0.15</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:58">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>3.7</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>24.666666670000001</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>11.71428571</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>1.8</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7">
         <v>7.3333333329999997</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7">
         <v>1.4</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7">
         <v>9.3333333330000006</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7">
         <v>66.8</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7">
         <v>445.33333329999999</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7">
         <v>4.7</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7">
         <v>31.333333329999999</v>
       </c>
-      <c r="X7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="X7">
+        <v>0.15</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>3.7272727269999999</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>25.9</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>37</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7">
         <v>4.5</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7">
         <v>30</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7">
         <v>1.8</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7">
         <v>12</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7">
         <v>0.4</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7">
         <v>0.7</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7">
         <v>4.6666666670000003</v>
       </c>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
     </row>
-    <row r="8" spans="1:58">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>29</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1">
+      <c r="AL8">
         <v>40</v>
       </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1">
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>5</v>
       </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1">
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
         <v>5</v>
       </c>
-      <c r="AQ8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="1">
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
         <v>160</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8">
         <v>160</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AT8">
         <v>80</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AU8">
         <v>126.99208419999999</v>
       </c>
-      <c r="AV8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="1">
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <v>10</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AX8">
         <v>10</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="AY8">
         <v>10</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="AZ8">
         <v>10</v>
       </c>
-      <c r="BA8" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="1">
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
         <v>10</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BC8">
         <v>10</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BD8">
         <v>10</v>
       </c>
-      <c r="BE8" s="1">
+      <c r="BE8">
         <v>10</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BF8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>29</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1">
+      <c r="AL9">
         <v>160</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AM9">
         <v>4</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AN9">
         <v>10</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AO9">
         <v>2</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AP9">
         <v>20</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AQ9">
         <v>4</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AR9">
         <v>640</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AS9">
         <v>640</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AT9">
         <v>1280</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AU9">
         <v>806.34947190000003</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AV9">
         <v>6.3496042050000003</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AW9">
         <v>40</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AX9">
         <v>40</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="AY9">
         <v>80</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="AZ9">
         <v>50.396841999999999</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="BA9">
         <v>5.0396841999999999</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="BB9">
         <v>80</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BC9">
         <v>160</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BD9">
         <v>160</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BE9">
         <v>126.99208419999999</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BF9">
         <v>12.69920842</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>29</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1">
+      <c r="AL10">
         <v>20</v>
       </c>
-      <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>5</v>
       </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1">
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
         <v>40</v>
       </c>
-      <c r="AQ10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="1">
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
         <v>80</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10">
         <v>80</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10">
         <v>80</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10">
         <v>80</v>
       </c>
-      <c r="AV10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="1">
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
         <v>320</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10">
         <v>320</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="AY10">
         <v>320</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="AZ10">
         <v>320</v>
       </c>
-      <c r="BA10" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="1">
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
         <v>10</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BC10">
         <v>10</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BD10">
         <v>10</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BE10">
         <v>10</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BF10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>29</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1">
+      <c r="AL11">
         <v>1280</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AM11">
         <v>64</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AN11">
         <v>5</v>
       </c>
-      <c r="AO11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="1">
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
         <v>640</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AQ11">
         <v>16</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AR11">
         <v>2560</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AS11">
         <v>5120</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AT11">
         <v>2560</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AU11">
         <v>3225.397888</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AV11">
         <v>40.3174736</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AW11">
         <v>2560</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AX11">
         <v>2560</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="AY11">
         <v>2560</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="AZ11">
         <v>2560</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="BA11">
         <v>8</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BB11">
         <v>160</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BC11">
         <v>160</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BD11">
         <v>160</v>
       </c>
-      <c r="BE11" s="1">
+      <c r="BE11">
         <v>160</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BF11">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>27</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>0.9</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>2.6</v>
       </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>2.6</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0.15</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0.15</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W12" s="1">
-        <v>1</v>
-      </c>
-      <c r="X12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.15</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0.15</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
         <v>0.3</v>
       </c>
-      <c r="AA12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="1">
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>0.5</v>
       </c>
-      <c r="AC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="1">
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0.15</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0.15</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0.15</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
+      <c r="AK12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:58">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>27</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>10.5</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>11.66666667</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>98.7</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>37.96153846</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>41</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>15.76923077</v>
       </c>
-      <c r="P13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="P13">
+        <v>0.15</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
         <v>2</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13">
         <v>13.33333333</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13">
         <v>2.5499999999999998</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13">
         <v>0.9</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13">
         <v>6</v>
       </c>
-      <c r="X13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="X13">
+        <v>0.15</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
         <v>1.2</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>4</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>0.8</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>1.6</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AD13">
         <v>2.5</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AE13">
         <v>16.666666670000001</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13">
         <v>2.9</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AG13">
         <v>19.333333329999999</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13">
         <v>3.6</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13">
         <v>24</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AJ13">
         <v>9.5</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13">
         <v>8.6363636360000005</v>
       </c>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
     </row>
-    <row r="14" spans="1:58">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>25</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>0.3</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.15</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>0.5</v>
       </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.15</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <v>0.3</v>
       </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U14" s="1">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="1">
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0.15</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0.15</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0.15</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.15</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
         <v>0.3</v>
       </c>
-      <c r="AG14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="1">
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0.15</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
         <v>0.5</v>
       </c>
-      <c r="AK14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
+      <c r="AK14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:58">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>25</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>20.6</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>68.666666669999998</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>1.7</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>11.33333333</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>1.5</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15">
         <v>0.8</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15">
         <v>5.3333333329999997</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15">
         <v>4.3</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15">
         <v>14.33333333</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15">
         <v>5.9</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15">
         <v>39.333333330000002</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15">
         <v>5.4</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15">
         <v>36</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15">
         <v>0.4</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y15">
         <v>2.6666666669999999</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>1.5</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>10</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>1.3</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15">
         <v>8.6666666669999994</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15">
         <v>32.666666669999998</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15">
         <v>3.4</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AG15">
         <v>11.33333333</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15">
         <v>0.9</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15">
         <v>6</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AJ15">
         <v>1.4</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15">
         <v>2.8</v>
       </c>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
     </row>
-    <row r="16" spans="1:58">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>23</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1">
+      <c r="AL16">
         <v>5</v>
       </c>
-      <c r="AM16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="1">
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <v>5</v>
       </c>
-      <c r="AO16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="1">
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
         <v>20</v>
       </c>
-      <c r="AQ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="1">
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
         <v>10</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="AS16">
         <v>10</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AT16">
         <v>10</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AU16">
         <v>10</v>
       </c>
-      <c r="AV16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="1">
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
         <v>10</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AX16">
         <v>10</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="AY16">
         <v>10</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="AZ16">
         <v>10</v>
       </c>
-      <c r="BA16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB16" s="1">
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
         <v>10</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BC16">
         <v>10</v>
       </c>
-      <c r="BD16" s="1">
+      <c r="BD16">
         <v>10</v>
       </c>
-      <c r="BE16" s="1">
+      <c r="BE16">
         <v>10</v>
       </c>
-      <c r="BF16" s="1">
+      <c r="BF16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>23</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1">
+      <c r="AL17">
         <v>160</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17">
         <v>32</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AN17">
         <v>40</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AO17">
         <v>8</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AP17">
         <v>160</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AQ17">
         <v>8</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="AR17">
         <v>160</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="AS17">
         <v>160</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AT17">
         <v>80</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AU17">
         <v>126.99208419999999</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AV17">
         <v>12.69920842</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="AW17">
         <v>160</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AX17">
         <v>320</v>
       </c>
-      <c r="AY17" s="1">
+      <c r="AY17">
         <v>320</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="AZ17">
         <v>253.98416829999999</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="BA17">
         <v>25.398416829999999</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BB17">
         <v>80</v>
       </c>
-      <c r="BC17" s="1">
+      <c r="BC17">
         <v>160</v>
       </c>
-      <c r="BD17" s="1">
+      <c r="BD17">
         <v>160</v>
       </c>
-      <c r="BE17" s="1">
+      <c r="BE17">
         <v>126.99208419999999</v>
       </c>
-      <c r="BF17" s="1">
+      <c r="BF17">
         <v>12.69920842</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>30</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>4.3</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.15</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>0.8</v>
       </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U18" s="1">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0.15</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0.15</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
         <v>1.3</v>
       </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1">
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0.15</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
         <v>0.5</v>
       </c>
-      <c r="AA18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="1">
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>0.3</v>
       </c>
-      <c r="AE18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="1">
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
         <v>0.9</v>
       </c>
-      <c r="AG18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="1">
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
         <v>0.4</v>
       </c>
-      <c r="AI18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="1">
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
         <v>1.3</v>
       </c>
-      <c r="AK18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
+      <c r="AK18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:58">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>30</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>115.1</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>26.767441860000002</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>2.9</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>19.333333329999999</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>6.4</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>8</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19">
         <v>0.4</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19">
         <v>2.6666666669999999</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19">
         <v>0.9</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19">
         <v>6</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19">
         <v>9</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19">
         <v>60</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19">
         <v>43.2</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19">
         <v>33.23076923</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y19">
         <v>34</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19">
         <v>3.2</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19">
         <v>6.4</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19">
         <v>17.399999999999999</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19">
         <v>17.399999999999999</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AD19">
         <v>12.3</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AE19">
         <v>41</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19">
         <v>23.8</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AG19">
         <v>26.444444440000002</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AH19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AI19" s="1">
+      <c r="AI19">
         <v>23.25</v>
       </c>
-      <c r="AJ19" s="1">
+      <c r="AJ19">
         <v>20.8</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19">
         <v>16</v>
       </c>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
     </row>
-    <row r="20" spans="1:58">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>32</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1">
+      <c r="AL20">
         <v>80</v>
       </c>
-      <c r="AM20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="1">
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
         <v>20</v>
       </c>
-      <c r="AO20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1">
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
         <v>160</v>
       </c>
-      <c r="AQ20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="1">
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
         <v>160</v>
       </c>
-      <c r="AS20" s="1">
+      <c r="AS20">
         <v>320</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AT20">
         <v>320</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AU20">
         <v>253.98416829999999</v>
       </c>
-      <c r="AV20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="1">
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
         <v>1280</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AX20">
         <v>1280</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="AY20">
         <v>2560</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="AZ20">
         <v>1612.698944</v>
       </c>
-      <c r="BA20" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="1">
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
         <v>40</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BC20">
         <v>80</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BD20">
         <v>80</v>
       </c>
-      <c r="BE20" s="1">
+      <c r="BE20">
         <v>63.496042080000002</v>
       </c>
-      <c r="BF20" s="1">
+      <c r="BF20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>32</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1">
+      <c r="AL21">
         <v>80</v>
       </c>
-      <c r="AM21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="1">
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
         <v>20</v>
       </c>
-      <c r="AO21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="1">
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
         <v>160</v>
       </c>
-      <c r="AQ21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="1">
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
         <v>160</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AS21">
         <v>160</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AT21">
         <v>80</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AU21">
         <v>126.99208419999999</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AV21">
         <v>0.5</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AW21">
         <v>640</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AX21">
         <v>1280</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="AY21">
         <v>1280</v>
       </c>
-      <c r="AZ21" s="1">
+      <c r="AZ21">
         <v>1015.936673</v>
       </c>
-      <c r="BA21" s="1">
+      <c r="BA21">
         <v>0.62996052499999999</v>
       </c>
-      <c r="BB21" s="1">
+      <c r="BB21">
         <v>40</v>
       </c>
-      <c r="BC21" s="1">
+      <c r="BC21">
         <v>40</v>
       </c>
-      <c r="BD21" s="1">
+      <c r="BD21">
         <v>40</v>
       </c>
-      <c r="BE21" s="1">
+      <c r="BE21">
         <v>40</v>
       </c>
-      <c r="BF21" s="1">
+      <c r="BF21">
         <v>0.62996052499999999</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>39</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1">
+      <c r="AL22">
         <v>5</v>
       </c>
-      <c r="AM22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="1">
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
         <v>5</v>
       </c>
-      <c r="AO22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="1">
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
         <v>40</v>
       </c>
-      <c r="AQ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="1">
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
         <v>10</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AS22">
         <v>10</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AT22">
         <v>10</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AU22">
         <v>10</v>
       </c>
-      <c r="AV22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="1">
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
         <v>160</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AX22">
         <v>320</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AY22">
         <v>320</v>
       </c>
-      <c r="AZ22" s="1">
+      <c r="AZ22">
         <v>253.98416829999999</v>
       </c>
-      <c r="BA22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="1">
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
         <v>10</v>
       </c>
-      <c r="BC22" s="1">
+      <c r="BC22">
         <v>10</v>
       </c>
-      <c r="BD22" s="1">
+      <c r="BD22">
         <v>10</v>
       </c>
-      <c r="BE22" s="1">
+      <c r="BE22">
         <v>10</v>
       </c>
-      <c r="BF22" s="1">
+      <c r="BF22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>39</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1">
+      <c r="AL23">
         <v>20</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AM23">
         <v>4</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AN23">
         <v>160</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AO23">
         <v>32</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AP23">
         <v>1280</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AQ23">
         <v>32</v>
       </c>
-      <c r="AR23" s="1">
+      <c r="AR23">
         <v>20</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AS23">
         <v>20</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AT23">
         <v>40</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AU23">
         <v>25.198421</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AV23">
         <v>2.5198421</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AW23">
         <v>10240</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AX23">
         <v>10240</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AY23">
         <v>10240</v>
       </c>
-      <c r="AZ23" s="1">
+      <c r="AZ23">
         <v>10240</v>
       </c>
-      <c r="BA23" s="1">
+      <c r="BA23">
         <v>40.3174736</v>
       </c>
-      <c r="BB23" s="1">
+      <c r="BB23">
         <v>160</v>
       </c>
-      <c r="BC23" s="1">
+      <c r="BC23">
         <v>320</v>
       </c>
-      <c r="BD23" s="1">
+      <c r="BD23">
         <v>320</v>
       </c>
-      <c r="BE23" s="1">
+      <c r="BE23">
         <v>253.98416829999999</v>
       </c>
-      <c r="BF23" s="1">
+      <c r="BF23">
         <v>25.398416829999999</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>29</v>
       </c>
-      <c r="J24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="J24">
+        <v>0.15</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>1.8</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>1</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="S24" s="1">
-        <v>1</v>
-      </c>
-      <c r="T24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="U24" s="1">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="W24" s="1">
-        <v>1</v>
-      </c>
-      <c r="X24" s="1">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.15</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0.15</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0.15</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0.15</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0.15</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
         <v>0.4</v>
       </c>
-      <c r="Y24" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="1">
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0.15</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0.15</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0.15</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0.15</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
         <v>0.5</v>
       </c>
-      <c r="AI24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="AK24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0.15</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:58">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>29</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25">
         <v>25.8</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25">
         <v>172</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25">
         <v>13.8</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
         <v>7.6666666670000003</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N25">
         <v>1.8</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>12</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25">
         <v>0.6</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25">
         <v>4</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T25">
         <v>1.3</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25">
         <v>8.6666666669999994</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25">
         <v>5.3</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25">
         <v>35.333333330000002</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25">
         <v>3.9</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y25">
         <v>9.75</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25">
         <v>2.1</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25">
         <v>14</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25">
         <v>0.4</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AD25">
         <v>0.5</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AE25">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25">
         <v>1.5</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AG25">
         <v>10</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AH25">
         <v>15</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AI25">
         <v>30</v>
       </c>
-      <c r="AJ25" s="1">
+      <c r="AJ25">
         <v>1.8</v>
       </c>
-      <c r="AK25" s="1">
+      <c r="AK25">
         <v>12</v>
       </c>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9313,2593 +8756,2194 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BF21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:58">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2">
+      <c r="AL2">
         <v>5</v>
       </c>
-      <c r="AM2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="2">
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
         <v>5</v>
       </c>
-      <c r="AO2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2">
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
         <v>40</v>
       </c>
-      <c r="AQ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="2">
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
         <v>80</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AS2">
         <v>80</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2">
         <v>80</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2">
         <v>80</v>
       </c>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="2">
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
         <v>160</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2">
         <v>320</v>
       </c>
-      <c r="AY2" s="2">
+      <c r="AY2">
         <v>320</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2">
         <v>253.98416829999999</v>
       </c>
-      <c r="BA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="2">
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
         <v>10</v>
       </c>
-      <c r="BC2" s="2">
+      <c r="BC2">
         <v>10</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2">
         <v>10</v>
       </c>
-      <c r="BE2" s="2">
+      <c r="BE2">
         <v>10</v>
       </c>
-      <c r="BF2" s="2">
+      <c r="BF2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>26</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2">
+      <c r="AL3">
         <v>40</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3">
         <v>8</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3">
         <v>5</v>
       </c>
-      <c r="AO3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="2">
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
         <v>80</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AQ3">
         <v>2</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3">
         <v>320</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AS3">
         <v>320</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3">
         <v>320</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3">
         <v>320</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AV3">
         <v>4</v>
       </c>
-      <c r="AW3" s="2">
+      <c r="AW3">
         <v>320</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3">
         <v>320</v>
       </c>
-      <c r="AY3" s="2">
+      <c r="AY3">
         <v>640</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3">
         <v>403.174736</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3">
         <v>1.5874010519999999</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="BB3">
         <v>20</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BC3">
         <v>20</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BD3">
         <v>40</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3">
         <v>25.198421</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BF3">
         <v>2.5198421</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>44</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2">
+      <c r="AL4">
         <v>20</v>
       </c>
-      <c r="AM4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2">
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
         <v>5</v>
       </c>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="2">
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
         <v>40</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="2">
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
         <v>40</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4">
         <v>40</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT4">
         <v>80</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU4">
         <v>50.396841999999999</v>
       </c>
-      <c r="AV4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="2">
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
         <v>320</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4">
         <v>320</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY4">
         <v>640</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4">
         <v>403.174736</v>
       </c>
-      <c r="BA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="2">
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
         <v>80</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC4">
         <v>80</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BD4">
         <v>80</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BE4">
         <v>80</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BF4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>44</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2">
+      <c r="AL5">
         <v>20</v>
       </c>
-      <c r="AM5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="2">
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
         <v>5</v>
       </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2">
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
         <v>80</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5">
         <v>2</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5">
         <v>40</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5">
         <v>40</v>
       </c>
-      <c r="AT5" s="2">
+      <c r="AT5">
         <v>40</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AU5">
         <v>40</v>
       </c>
-      <c r="AV5" s="2">
+      <c r="AV5">
         <v>0.79370052599999996</v>
       </c>
-      <c r="AW5" s="2">
+      <c r="AW5">
         <v>160</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5">
         <v>160</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AY5">
         <v>320</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5">
         <v>201.587368</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BA5">
         <v>0.5</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="BB5">
         <v>80</v>
       </c>
-      <c r="BC5" s="2">
+      <c r="BC5">
         <v>80</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BD5">
         <v>160</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="BE5">
         <v>100.793684</v>
       </c>
-      <c r="BF5" s="2">
+      <c r="BF5">
         <v>1.25992105</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>174</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>40</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2">
+      <c r="AL6">
         <v>10</v>
       </c>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2">
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
         <v>5</v>
       </c>
-      <c r="AO6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="2">
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
         <v>10</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="2">
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
         <v>40</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6">
         <v>40</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6">
         <v>40</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6">
         <v>40</v>
       </c>
-      <c r="AV6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="2">
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
         <v>40</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6">
         <v>40</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AY6">
         <v>80</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6">
         <v>50.396841999999999</v>
       </c>
-      <c r="BA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="2">
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
         <v>80</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BC6">
         <v>80</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BD6">
         <v>80</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BE6">
         <v>80</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BF6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>40</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2">
+      <c r="AL7">
         <v>10</v>
       </c>
-      <c r="AM7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="2">
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
         <v>10</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7">
         <v>2</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="AP7">
         <v>10</v>
       </c>
-      <c r="AQ7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="2">
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
         <v>40</v>
       </c>
-      <c r="AS7" s="2">
+      <c r="AS7">
         <v>80</v>
       </c>
-      <c r="AT7" s="2">
+      <c r="AT7">
         <v>80</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AU7">
         <v>63.496042080000002</v>
       </c>
-      <c r="AV7" s="2">
+      <c r="AV7">
         <v>1.5874010519999999</v>
       </c>
-      <c r="AW7" s="2">
+      <c r="AW7">
         <v>40</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7">
         <v>40</v>
       </c>
-      <c r="AY7" s="2">
+      <c r="AY7">
         <v>80</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7">
         <v>50.396841999999999</v>
       </c>
-      <c r="BA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="2">
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
         <v>160</v>
       </c>
-      <c r="BC7" s="2">
+      <c r="BC7">
         <v>160</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BD7">
         <v>320</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BE7">
         <v>201.587368</v>
       </c>
-      <c r="BF7" s="2">
+      <c r="BF7">
         <v>2.5198421</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>26</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2">
+      <c r="AL8">
         <v>5</v>
       </c>
-      <c r="AM8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2">
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
         <v>5</v>
       </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="2">
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
         <v>20</v>
       </c>
-      <c r="AQ8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="2">
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
         <v>10</v>
       </c>
-      <c r="AS8" s="2">
+      <c r="AS8">
         <v>10</v>
       </c>
-      <c r="AT8" s="2">
+      <c r="AT8">
         <v>10</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8">
         <v>10</v>
       </c>
-      <c r="AV8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW8" s="2">
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <v>40</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX8">
         <v>40</v>
       </c>
-      <c r="AY8" s="2">
+      <c r="AY8">
         <v>80</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8">
         <v>50.396841999999999</v>
       </c>
-      <c r="BA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="2">
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
         <v>10</v>
       </c>
-      <c r="BC8" s="2">
+      <c r="BC8">
         <v>10</v>
       </c>
-      <c r="BD8" s="2">
+      <c r="BD8">
         <v>10</v>
       </c>
-      <c r="BE8" s="2">
+      <c r="BE8">
         <v>10</v>
       </c>
-      <c r="BF8" s="2">
+      <c r="BF8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>26</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2">
+      <c r="AL9">
         <v>80</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9">
         <v>16</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9">
         <v>20</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9">
         <v>4</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="AP9">
         <v>640</v>
       </c>
-      <c r="AQ9" s="2">
+      <c r="AQ9">
         <v>32</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9">
         <v>160</v>
       </c>
-      <c r="AS9" s="2">
+      <c r="AS9">
         <v>80</v>
       </c>
-      <c r="AT9" s="2">
+      <c r="AT9">
         <v>80</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AU9">
         <v>100.793684</v>
       </c>
-      <c r="AV9" s="2">
+      <c r="AV9">
         <v>10.0793684</v>
       </c>
-      <c r="AW9" s="2">
+      <c r="AW9">
         <v>1280</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="AX9">
         <v>1280</v>
       </c>
-      <c r="AY9" s="2">
+      <c r="AY9">
         <v>1280</v>
       </c>
-      <c r="AZ9" s="2">
+      <c r="AZ9">
         <v>1280</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BA9">
         <v>25.398416829999999</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BB9">
         <v>160</v>
       </c>
-      <c r="BC9" s="2">
+      <c r="BC9">
         <v>160</v>
       </c>
-      <c r="BD9" s="2">
+      <c r="BD9">
         <v>320</v>
       </c>
-      <c r="BE9" s="2">
+      <c r="BE9">
         <v>201.587368</v>
       </c>
-      <c r="BF9" s="2">
+      <c r="BF9">
         <v>20.1587368</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>36</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2">
+      <c r="AL10">
         <v>5</v>
       </c>
-      <c r="AM10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="2">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
         <v>5</v>
       </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="2">
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
         <v>80</v>
       </c>
-      <c r="AQ10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="2">
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
         <v>40</v>
       </c>
-      <c r="AS10" s="2">
+      <c r="AS10">
         <v>40</v>
       </c>
-      <c r="AT10" s="2">
+      <c r="AT10">
         <v>40</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AU10">
         <v>40</v>
       </c>
-      <c r="AV10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="2">
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
         <v>1280</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="AX10">
         <v>2560</v>
       </c>
-      <c r="AY10" s="2">
+      <c r="AY10">
         <v>2560</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10">
         <v>2031.873347</v>
       </c>
-      <c r="BA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="2">
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
         <v>160</v>
       </c>
-      <c r="BC10" s="2">
+      <c r="BC10">
         <v>160</v>
       </c>
-      <c r="BD10" s="2">
+      <c r="BD10">
         <v>160</v>
       </c>
-      <c r="BE10" s="2">
+      <c r="BE10">
         <v>160</v>
       </c>
-      <c r="BF10" s="2">
+      <c r="BF10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>36</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2">
+      <c r="AL11">
         <v>20</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AM11">
         <v>4</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11">
         <v>5</v>
       </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="2">
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
         <v>160</v>
       </c>
-      <c r="AQ11" s="2">
+      <c r="AQ11">
         <v>2</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11">
         <v>640</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11">
         <v>640</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11">
         <v>640</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11">
         <v>640</v>
       </c>
-      <c r="AV11" s="2">
+      <c r="AV11">
         <v>16</v>
       </c>
-      <c r="AW11" s="2">
+      <c r="AW11">
         <v>1280</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="AX11">
         <v>2560</v>
       </c>
-      <c r="AY11" s="2">
+      <c r="AY11">
         <v>2560</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11">
         <v>2031.873347</v>
       </c>
-      <c r="BA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="2">
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
         <v>640</v>
       </c>
-      <c r="BC11" s="2">
+      <c r="BC11">
         <v>640</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BD11">
         <v>640</v>
       </c>
-      <c r="BE11" s="2">
+      <c r="BE11">
         <v>640</v>
       </c>
-      <c r="BF11" s="2">
+      <c r="BF11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>23</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2">
+      <c r="AL12">
         <v>20</v>
       </c>
-      <c r="AM12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="2">
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
         <v>20</v>
       </c>
-      <c r="AO12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="2">
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
         <v>40</v>
       </c>
-      <c r="AQ12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="2">
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
         <v>80</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12">
         <v>160</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12">
         <v>160</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AU12">
         <v>126.99208419999999</v>
       </c>
-      <c r="AV12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="2">
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
         <v>2560</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12">
         <v>2560</v>
       </c>
-      <c r="AY12" s="2">
+      <c r="AY12">
         <v>640</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12">
         <v>1612.698944</v>
       </c>
-      <c r="BA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="2">
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
         <v>80</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BC12">
         <v>80</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BD12">
         <v>80</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BE12">
         <v>80</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BF12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>23</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2">
+      <c r="AL13">
         <v>160</v>
       </c>
-      <c r="AM13" s="2">
+      <c r="AM13">
         <v>8</v>
       </c>
-      <c r="AN13" s="2">
+      <c r="AN13">
         <v>40</v>
       </c>
-      <c r="AO13" s="2">
+      <c r="AO13">
         <v>2</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="AP13">
         <v>640</v>
       </c>
-      <c r="AQ13" s="2">
+      <c r="AQ13">
         <v>16</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AR13">
         <v>80</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13">
         <v>80</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT13">
         <v>80</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AU13">
         <v>80</v>
       </c>
-      <c r="AV13" s="2">
+      <c r="AV13">
         <v>0.62996052499999999</v>
       </c>
-      <c r="AW13" s="2">
+      <c r="AW13">
         <v>2560</v>
       </c>
-      <c r="AX13" s="2">
+      <c r="AX13">
         <v>2560</v>
       </c>
-      <c r="AY13" s="2">
+      <c r="AY13">
         <v>2560</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ13">
         <v>2560</v>
       </c>
-      <c r="BA13" s="2">
+      <c r="BA13">
         <v>1.5874010519999999</v>
       </c>
-      <c r="BB13" s="2">
+      <c r="BB13">
         <v>160</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BC13">
         <v>160</v>
       </c>
-      <c r="BD13" s="2">
+      <c r="BD13">
         <v>320</v>
       </c>
-      <c r="BE13" s="2">
+      <c r="BE13">
         <v>201.587368</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BF13">
         <v>2.5198421</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>45</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>0.4</v>
       </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="O14" s="2">
-        <v>1</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="2">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0.15</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0.15</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0.15</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0.15</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0.15</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
         <v>1.6</v>
       </c>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2">
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>0.7</v>
       </c>
-      <c r="AC14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH14" s="2">
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.15</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0.15</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
         <v>1.3</v>
       </c>
-      <c r="AI14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
-      <c r="AP14" s="2"/>
-      <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
-      <c r="BA14" s="2"/>
-      <c r="BB14" s="2"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.15</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:58">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>45</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>101.5</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>253.75</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>125.5</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>25.1</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>27.333333329999999</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>15.33333333</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>0.5</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>3.3333333330000001</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15">
         <v>0.7</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15">
         <v>4.6666666670000003</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15">
         <v>1.7</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15">
         <v>11.33333333</v>
       </c>
-      <c r="X15" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="2">
+      <c r="X15">
+        <v>0.15</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
         <v>7.9</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15">
         <v>4.9375</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15">
         <v>10.199999999999999</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AC15">
         <v>14.57142857</v>
       </c>
-      <c r="AD15" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="2">
+      <c r="AD15">
+        <v>0.15</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
         <v>5.7</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AG15">
         <v>38</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AH15">
         <v>7.8</v>
       </c>
-      <c r="AI15" s="2">
+      <c r="AI15">
         <v>6</v>
       </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="2">
+      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
         <v>6.6666666670000003</v>
       </c>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
     </row>
-    <row r="16" spans="1:58">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>31</v>
       </c>
-      <c r="J16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U16" s="2">
-        <v>1</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="W16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
+      <c r="J16">
+        <v>0.15</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.15</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.15</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0.15</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0.15</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0.15</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0.15</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0.15</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0.15</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0.15</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0.15</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0.15</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0.15</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>31</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>0.3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>20</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
         <v>6.6666666670000003</v>
       </c>
-      <c r="P17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="P17">
+        <v>0.15</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
         <v>0.9</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17">
         <v>6</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17">
         <v>4.5</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17">
         <v>30</v>
       </c>
-      <c r="V17" s="2">
+      <c r="V17">
         <v>0.3</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17">
         <v>2</v>
       </c>
-      <c r="X17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2">
+      <c r="X17">
+        <v>0.15</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0.15</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0.15</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0.15</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
         <v>0.5</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AG17">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AH17">
         <v>2.6</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AI17">
         <v>17.333333329999999</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AJ17">
         <v>0.4</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AK17">
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>23</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K18" s="2">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.15</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0.15</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0.15</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0.15</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0.15</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0.15</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0.15</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0.15</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0.15</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>0.4</v>
       </c>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AI18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AK18" s="2">
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0.15</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0.15</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0.15</v>
+      </c>
+      <c r="AK18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>192</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>23</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>9.6</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>1.8823529409999999</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>1.7</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>11.33333333</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>0.4</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>2.6666666669999999</v>
       </c>
-      <c r="P19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="P19">
+        <v>0.15</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
         <v>0.4</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19">
         <v>2.6666666669999999</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19">
         <v>2.4</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19">
         <v>16</v>
       </c>
-      <c r="V19" s="2">
+      <c r="V19">
         <v>0.5</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19">
         <v>3.3333333330000001</v>
       </c>
-      <c r="X19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2">
+      <c r="X19">
+        <v>0.15</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0.15</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>1.7</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AC19">
         <v>11.33333333</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19">
         <v>4.3</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19">
         <v>10.75</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19">
         <v>0.4</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AH19">
         <v>0.9</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AI19">
         <v>6</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19">
         <v>0.4</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AK19">
         <v>2.6666666669999999</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>151</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>40</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>1.3</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>1.3</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>16.399999999999999</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>109.33333330000001</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>1.9</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>4.75</v>
       </c>
-      <c r="P20" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="P20">
+        <v>0.15</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>11.2</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20">
         <v>16</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20">
         <v>49</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20">
         <v>40.833333330000002</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20">
         <v>0.6</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20">
         <v>4</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20">
         <v>0.4</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20">
         <v>2.6666666669999999</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20">
         <v>0.3</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20">
         <v>2</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20">
         <v>1.8</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20">
         <v>3.6</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20">
         <v>10.5</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20">
         <v>3.75</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20">
         <v>4.8888888890000004</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AH20">
         <v>0.3</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20">
         <v>2</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AJ20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AK20">
         <v>1.571428571</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>40</v>
       </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.15</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>0.4</v>
       </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0.15</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
         <v>0.7</v>
       </c>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
         <v>1.2</v>
       </c>
-      <c r="U21" s="2">
-        <v>1</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="2">
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0.15</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0.15</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>0.5</v>
       </c>
-      <c r="AC21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="2">
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
         <v>2.8</v>
       </c>
-      <c r="AE21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="2">
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
         <v>0.9</v>
       </c>
-      <c r="AG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AI21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="2">
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0.15</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
         <v>0.7</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21">
         <v>1</v>
       </c>
     </row>
